--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2797.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2797.xlsx
@@ -354,7 +354,7 @@
         <v>2.438139297864419</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.365627485677828</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2797.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2797.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168643317495637</v>
+        <v>0.9647635817527771</v>
       </c>
       <c r="B1">
-        <v>2.438139297864419</v>
+        <v>1.736628890037537</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.740855693817139</v>
       </c>
       <c r="D1">
-        <v>2.365627485677828</v>
+        <v>1.362407684326172</v>
       </c>
       <c r="E1">
-        <v>1.232483361294044</v>
+        <v>1.198545813560486</v>
       </c>
     </row>
   </sheetData>
